--- a/data/TestLocation/input_data/hydro_cascades.xlsx
+++ b/data/TestLocation/input_data/hydro_cascades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C321DD6-FCC7-4BF0-941F-CF04807BBC90}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B44A5C0-2E78-4342-8681-494A73B504C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7450" yWindow="-17340" windowWidth="24040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
   <si>
     <t>dummy</t>
   </si>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,6 +541,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53"/>
@@ -822,37 +823,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD91"/>
+  <dimension ref="A1:AB91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -954,6 +954,15 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
       <c r="H2" s="4">
         <v>0</v>
       </c>
@@ -1037,6 +1046,9 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
       <c r="H3" s="4">
         <v>0</v>
       </c>
@@ -1117,6 +1129,9 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
@@ -1200,6 +1215,9 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
@@ -1280,6 +1298,12 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
@@ -1366,6 +1390,9 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
       <c r="H7" s="4">
         <v>432</v>
       </c>
@@ -1449,6 +1476,9 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
@@ -1532,6 +1562,9 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
@@ -1612,6 +1645,12 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -1689,6 +1728,15 @@
       <c r="D11" t="s">
         <v>52</v>
       </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
@@ -1766,8 +1814,14 @@
       <c r="D12" t="s">
         <v>57</v>
       </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
       <c r="F12" t="s">
         <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -1846,6 +1900,15 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -1923,6 +1986,15 @@
       <c r="D14" t="s">
         <v>45</v>
       </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
       <c r="H14" s="4">
         <v>130</v>
       </c>
@@ -2006,6 +2078,9 @@
       <c r="F15" t="s">
         <v>15</v>
       </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
@@ -2089,6 +2164,9 @@
       <c r="F16" t="s">
         <v>15</v>
       </c>
+      <c r="G16" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
@@ -2172,6 +2250,9 @@
       <c r="F17" t="s">
         <v>16</v>
       </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
@@ -2255,6 +2336,9 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
+      <c r="G18" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
@@ -2338,6 +2422,9 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
@@ -2421,6 +2508,9 @@
       <c r="F20" t="s">
         <v>19</v>
       </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
@@ -2504,6 +2594,9 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
       <c r="H21" s="4">
         <v>101</v>
       </c>
@@ -2587,6 +2680,9 @@
       <c r="F22" t="s">
         <v>22</v>
       </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
       <c r="H22" s="4">
         <v>382</v>
       </c>
@@ -2670,6 +2766,9 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
       <c r="H23" s="4">
         <v>7</v>
       </c>
@@ -2747,6 +2846,15 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
+      <c r="E24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
@@ -2824,6 +2932,15 @@
       <c r="D25" t="s">
         <v>52</v>
       </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
       <c r="H25" s="4">
         <v>0</v>
       </c>
@@ -2907,6 +3024,9 @@
       <c r="F26" t="s">
         <v>25</v>
       </c>
+      <c r="G26" t="s">
+        <v>97</v>
+      </c>
       <c r="H26" s="4">
         <v>0</v>
       </c>
@@ -2984,6 +3104,15 @@
       <c r="D27" t="s">
         <v>45</v>
       </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
       <c r="H27" s="4">
         <v>0</v>
       </c>
@@ -3067,6 +3196,9 @@
       <c r="F28" t="s">
         <v>28</v>
       </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
       <c r="H28" s="4">
         <v>0</v>
       </c>
@@ -3150,6 +3282,9 @@
       <c r="F29" t="s">
         <v>28</v>
       </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
       <c r="H29" s="4">
         <v>0</v>
       </c>
@@ -3233,6 +3368,9 @@
       <c r="F30" t="s">
         <v>29</v>
       </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
@@ -3310,6 +3448,15 @@
       <c r="D31" t="s">
         <v>45</v>
       </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
@@ -3393,6 +3540,9 @@
       <c r="F32" t="s">
         <v>31</v>
       </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
       <c r="H32" s="4">
         <v>0</v>
       </c>
@@ -3457,7 +3607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3470,6 +3620,15 @@
       <c r="D33" t="s">
         <v>52</v>
       </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
@@ -3534,7 +3693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3553,6 +3712,9 @@
       <c r="F34" t="s">
         <v>33</v>
       </c>
+      <c r="G34" t="s">
+        <v>97</v>
+      </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
@@ -3617,7 +3779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3636,6 +3798,9 @@
       <c r="F35" t="s">
         <v>34</v>
       </c>
+      <c r="G35" t="s">
+        <v>97</v>
+      </c>
       <c r="H35" s="4">
         <v>0</v>
       </c>
@@ -3700,7 +3865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3719,6 +3884,9 @@
       <c r="F36" t="s">
         <v>35</v>
       </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
@@ -3783,7 +3951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3796,6 +3964,15 @@
       <c r="D37" t="s">
         <v>52</v>
       </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -3860,7 +4037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3879,6 +4056,9 @@
       <c r="F38" t="s">
         <v>37</v>
       </c>
+      <c r="G38" t="s">
+        <v>97</v>
+      </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
@@ -3943,7 +4123,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3956,6 +4136,15 @@
       <c r="D39" t="s">
         <v>45</v>
       </c>
+      <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" t="s">
+        <v>97</v>
+      </c>
       <c r="H39" s="4">
         <v>0</v>
       </c>
@@ -4020,7 +4209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4033,6 +4222,15 @@
       <c r="D40" t="s">
         <v>45</v>
       </c>
+      <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>97</v>
+      </c>
       <c r="H40" s="4">
         <v>0</v>
       </c>
@@ -4097,7 +4295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4116,6 +4314,9 @@
       <c r="F41" t="s">
         <v>40</v>
       </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
       <c r="H41" s="4">
         <v>0</v>
       </c>
@@ -4180,7 +4381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4193,6 +4394,15 @@
       <c r="D42" t="s">
         <v>45</v>
       </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>97</v>
+      </c>
       <c r="H42" s="4">
         <v>0</v>
       </c>
@@ -4257,7 +4467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="H44" s="8" t="s">
         <v>125</v>
       </c>
@@ -4312,19 +4522,18 @@
       <c r="AB44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="XFD44" s="4"/>
-    </row>
-    <row r="46" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28 16384:16384" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>117</v>
       </c>

--- a/data/TestLocation/input_data/hydro_cascades.xlsx
+++ b/data/TestLocation/input_data/hydro_cascades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B44A5C0-2E78-4342-8681-494A73B504C2}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A60DF3-B148-4230-9ABF-49A3163EA0E0}"/>
   <bookViews>
-    <workbookView xWindow="-7450" yWindow="-17340" windowWidth="24040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4356" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
   <si>
     <t>dummy</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>kg CO2/MWh</t>
+  </si>
+  <si>
+    <t>uniless</t>
+  </si>
+  <si>
+    <t>kappaYieldH</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +478,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -487,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -522,12 +535,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +566,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53"/>
@@ -823,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB91"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,20 +870,21 @@
     <col min="8" max="9" width="10.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
@@ -889,59 +918,62 @@
       <c r="K1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -975,11 +1007,11 @@
       <c r="K2" s="6">
         <v>181.4</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="11">
         <v>1</v>
       </c>
-      <c r="M2" s="4">
-        <v>0</v>
+      <c r="M2" s="6">
+        <v>1</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
@@ -987,26 +1019,26 @@
       <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>49.5</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
       <c r="R2" s="4">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>6.6</v>
       </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
       <c r="U2" s="4">
         <v>0</v>
       </c>
       <c r="V2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4">
         <v>1</v>
@@ -1026,8 +1058,11 @@
       <c r="AB2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1061,38 +1096,39 @@
       <c r="K3" s="6">
         <v>181.4</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="11">
+        <f>I3*J3*9.8/1000</f>
+        <v>9.7710900000000009</v>
+      </c>
+      <c r="M3" s="6">
         <v>1033.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>37.83</v>
       </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
       <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
         <v>31</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>49.5</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
       <c r="R3" s="4">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>6.6</v>
       </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
       <c r="U3" s="4">
         <v>0</v>
       </c>
       <c r="V3" s="4">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
         <v>689</v>
@@ -1112,8 +1148,11 @@
       <c r="AB3" s="4">
         <v>689</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3" s="4">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1147,38 +1186,39 @@
       <c r="K4" s="6">
         <v>125.8</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="11">
+        <f>I4*J4*9.8/1000</f>
+        <v>0.37367400000000006</v>
+      </c>
+      <c r="M4" s="4">
         <v>32</v>
       </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>49.5</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
       <c r="R4" s="4">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>6.6</v>
       </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
       <c r="U4" s="4">
         <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
         <v>32</v>
@@ -1198,8 +1238,11 @@
       <c r="AB4" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1233,38 +1276,39 @@
       <c r="K5" s="4">
         <v>99</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L42" si="0">I5*J5*9.8/1000</f>
+        <v>44.1</v>
+      </c>
+      <c r="M5" s="4">
         <v>699</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>48.88</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>50</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>49.5</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
       <c r="R5" s="4">
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>6.6</v>
       </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
       <c r="U5" s="4">
         <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4">
         <v>466</v>
@@ -1284,8 +1328,11 @@
       <c r="AB5" s="4">
         <v>466</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5" s="4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1319,38 +1366,39 @@
       <c r="K6" s="4">
         <v>50</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="M6" s="4">
         <v>492</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>62.393066111263799</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>26</v>
       </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>49.5</v>
       </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
       <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>6.6</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
       <c r="U6" s="4">
         <v>0</v>
       </c>
       <c r="V6" s="4">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="W6" s="4">
         <v>328</v>
@@ -1370,8 +1418,11 @@
       <c r="AB6" s="4">
         <v>328</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1405,38 +1456,39 @@
       <c r="K7" s="4">
         <v>545</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>48.632304000000012</v>
+      </c>
+      <c r="M7" s="7">
         <v>673.11</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>31.6438642661901</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>44.874000000000002</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>49.5</v>
       </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
       <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>6.6</v>
       </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
       <c r="U7" s="4">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>448.74</v>
+      <c r="V7" s="4">
+        <v>0</v>
       </c>
       <c r="W7">
         <v>448.74</v>
@@ -1456,8 +1508,11 @@
       <c r="AB7">
         <v>448.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>448.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1491,38 +1546,39 @@
       <c r="K8" s="4">
         <v>147</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.204118E-4</v>
+      </c>
+      <c r="M8" s="4">
         <v>129</v>
       </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>49.5</v>
       </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
       <c r="R8" s="4">
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>6.6</v>
       </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
       <c r="U8" s="4">
         <v>0</v>
       </c>
       <c r="V8" s="4">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="W8" s="4">
         <v>129</v>
@@ -1542,8 +1598,11 @@
       <c r="AB8" s="4">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1577,38 +1636,39 @@
       <c r="K9" s="4">
         <v>190</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>5.6977200000000007E-3</v>
+      </c>
+      <c r="M9" s="7">
         <v>478.76</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>47.048396678610501</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
       <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>49.5</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
       <c r="R9" s="4">
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>6.6</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
       <c r="U9" s="4">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>319.17</v>
+      <c r="V9" s="4">
+        <v>0</v>
       </c>
       <c r="W9">
         <v>319.17</v>
@@ -1628,8 +1688,11 @@
       <c r="AB9">
         <v>319.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>319.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1663,38 +1726,39 @@
       <c r="K10" s="4">
         <v>140</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2791112000000013E-3</v>
+      </c>
+      <c r="M10" s="7">
         <v>267.2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>64.489999999999995</v>
       </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>49.5</v>
       </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
       <c r="R10" s="4">
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>6.6</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
       <c r="U10" s="4">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>178.13</v>
+      <c r="V10" s="4">
+        <v>0</v>
       </c>
       <c r="W10">
         <v>178.13</v>
@@ -1714,8 +1778,11 @@
       <c r="AB10">
         <v>178.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>178.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1749,38 +1816,39 @@
       <c r="K11" s="7">
         <v>59.35</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>4.2653520000000009E-3</v>
+      </c>
+      <c r="M11" s="7">
         <v>70.650000000000006</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>7.1</v>
       </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>49.5</v>
       </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
       <c r="R11" s="4">
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>6.6</v>
       </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
       <c r="U11" s="4">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>70.650000000000006</v>
+      <c r="V11" s="4">
+        <v>0</v>
       </c>
       <c r="W11">
         <v>70.650000000000006</v>
@@ -1800,8 +1868,11 @@
       <c r="AB11">
         <v>70.650000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>70.650000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1835,38 +1906,39 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
         <v>0.01</v>
       </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>49.5</v>
       </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
       <c r="R12" s="4">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>6.6</v>
       </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
       <c r="U12" s="4">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0.01</v>
+      <c r="V12" s="4">
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0.01</v>
@@ -1886,8 +1958,11 @@
       <c r="AB12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1921,38 +1996,39 @@
       <c r="K13" s="6">
         <v>212</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>9.7064100000000018</v>
+      </c>
+      <c r="M13" s="7">
         <v>257.36</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>56.530918153314701</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>17.2</v>
       </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>49.5</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
       <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>6.6</v>
       </c>
-      <c r="T13" s="4">
-        <v>0</v>
-      </c>
       <c r="U13" s="4">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>171.57</v>
+      <c r="V13" s="4">
+        <v>0</v>
       </c>
       <c r="W13">
         <v>171.57</v>
@@ -1972,8 +2048,11 @@
       <c r="AB13">
         <v>171.57</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>171.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2007,38 +2086,39 @@
       <c r="K14" s="6">
         <v>76</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>4.7064500000000011</v>
+      </c>
+      <c r="M14" s="7">
         <v>564.96</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>56.597468747572599</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>40</v>
       </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>49.5</v>
       </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
       <c r="R14" s="4">
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>6.6</v>
       </c>
-      <c r="T14" s="4">
-        <v>0</v>
-      </c>
       <c r="U14" s="4">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>376.64</v>
+      <c r="V14" s="4">
+        <v>0</v>
       </c>
       <c r="W14">
         <v>376.64</v>
@@ -2058,8 +2138,11 @@
       <c r="AB14">
         <v>376.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>376.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2093,38 +2176,39 @@
       <c r="K15" s="6">
         <v>370</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="11">
+        <f>I15*J15*9.8/1000</f>
+        <v>1.4112</v>
+      </c>
+      <c r="M15" s="7">
         <v>105.82</v>
       </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
       <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>15</v>
       </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>49.5</v>
       </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
       <c r="R15" s="4">
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>6.6</v>
       </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
       <c r="U15" s="4">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>105.82</v>
+      <c r="V15" s="4">
+        <v>0</v>
       </c>
       <c r="W15">
         <v>105.82</v>
@@ -2144,8 +2228,11 @@
       <c r="AB15">
         <v>105.82</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>105.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2179,38 +2266,39 @@
       <c r="K16" s="6">
         <v>720.5</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="11">
+        <f t="shared" si="0"/>
+        <v>11.978714538</v>
+      </c>
+      <c r="M16" s="4">
         <v>150</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>53.1247859702178</v>
       </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
       <c r="O16" s="4">
         <v>0</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>49.5</v>
       </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
       <c r="R16" s="4">
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>6.6</v>
       </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
       <c r="U16" s="4">
         <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W16" s="4">
         <v>150</v>
@@ -2230,8 +2318,11 @@
       <c r="AB16" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2265,38 +2356,39 @@
       <c r="K17" s="6">
         <v>93</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6671680000000001E-3</v>
+      </c>
+      <c r="M17" s="7">
         <v>69.88</v>
       </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>49.5</v>
       </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
       <c r="R17" s="4">
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <v>6.6</v>
       </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
       <c r="U17" s="4">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>69.88</v>
+      <c r="V17" s="4">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>69.88</v>
@@ -2316,8 +2408,11 @@
       <c r="AB17">
         <v>69.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17">
+        <v>69.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2351,38 +2446,39 @@
       <c r="K18" s="6">
         <v>114.3</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6730950400000006E-3</v>
+      </c>
+      <c r="M18" s="7">
         <v>91.77</v>
       </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>49.5</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
       <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>6.6</v>
       </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
       <c r="U18" s="4">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>91.77</v>
+      <c r="V18" s="4">
+        <v>0</v>
       </c>
       <c r="W18">
         <v>91.77</v>
@@ -2402,8 +2498,11 @@
       <c r="AB18">
         <v>91.77</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18">
+        <v>91.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2437,38 +2536,39 @@
       <c r="K19" s="6">
         <v>50.4</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6671680000000001E-3</v>
+      </c>
+      <c r="M19" s="7">
         <v>39.93</v>
       </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>49.5</v>
       </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
       <c r="R19" s="4">
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>6.6</v>
       </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
       <c r="U19" s="4">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>39.93</v>
+      <c r="V19" s="4">
+        <v>0</v>
       </c>
       <c r="W19">
         <v>39.93</v>
@@ -2488,8 +2588,11 @@
       <c r="AB19">
         <v>39.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2523,38 +2626,39 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
         <v>0.01</v>
       </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>49.5</v>
       </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
       <c r="R20" s="4">
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>6.6</v>
       </c>
-      <c r="T20" s="4">
-        <v>0</v>
-      </c>
       <c r="U20" s="4">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0.01</v>
+      <c r="V20" s="4">
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0.01</v>
@@ -2574,8 +2678,11 @@
       <c r="AB20">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2609,38 +2716,39 @@
       <c r="K21" s="4">
         <v>206</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="11">
+        <f t="shared" si="0"/>
+        <v>1.11622</v>
+      </c>
+      <c r="M21" s="7">
         <v>852.45</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>37.953482342043699</v>
       </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
       <c r="O21" s="4">
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>49.5</v>
       </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
       <c r="R21" s="4">
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>6.6</v>
       </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
       <c r="U21" s="4">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>568.29999999999995</v>
+      <c r="V21" s="4">
+        <v>0</v>
       </c>
       <c r="W21">
         <v>568.29999999999995</v>
@@ -2660,8 +2768,11 @@
       <c r="AB21">
         <v>568.29999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21">
+        <v>568.29999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2695,38 +2806,39 @@
       <c r="K22" s="4">
         <v>168</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="11">
+        <f t="shared" si="0"/>
+        <v>13.917960000000001</v>
+      </c>
+      <c r="M22" s="7">
         <v>709.23</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>44.688279346728599</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>50</v>
       </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>49.5</v>
       </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
       <c r="R22" s="4">
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <v>6.6</v>
       </c>
-      <c r="T22" s="4">
-        <v>0</v>
-      </c>
       <c r="U22" s="4">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>472.82</v>
+      <c r="V22" s="4">
+        <v>0</v>
       </c>
       <c r="W22">
         <v>472.82</v>
@@ -2746,8 +2858,11 @@
       <c r="AB22">
         <v>472.82</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2781,38 +2896,39 @@
       <c r="K23" s="4">
         <v>37</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.14660800000000004</v>
+      </c>
+      <c r="M23" s="7">
         <v>94.76</v>
       </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
       <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
         <v>19</v>
       </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>49.5</v>
       </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
       <c r="R23" s="4">
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>6.6</v>
       </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
       <c r="U23" s="4">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>94.76</v>
+      <c r="V23" s="4">
+        <v>0</v>
       </c>
       <c r="W23">
         <v>94.76</v>
@@ -2832,8 +2948,11 @@
       <c r="AB23">
         <v>94.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23">
+        <v>94.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2867,38 +2986,39 @@
       <c r="K24" s="4">
         <v>120</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
         <v>19.16</v>
       </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>1.9</v>
       </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24">
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>49.5</v>
       </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
       <c r="R24" s="4">
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <v>6.6</v>
       </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
       <c r="U24" s="4">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>19.16</v>
+      <c r="V24" s="4">
+        <v>0</v>
       </c>
       <c r="W24">
         <v>19.16</v>
@@ -2918,8 +3038,11 @@
       <c r="AB24">
         <v>19.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2953,38 +3076,39 @@
       <c r="K25" s="4">
         <v>21</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
         <v>36.909999999999997</v>
       </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>3.7</v>
       </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25">
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>49.5</v>
       </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
       <c r="R25" s="4">
         <v>0</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <v>6.6</v>
       </c>
-      <c r="T25" s="4">
-        <v>0</v>
-      </c>
       <c r="U25" s="4">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>36.909999999999997</v>
+      <c r="V25" s="4">
+        <v>0</v>
       </c>
       <c r="W25">
         <v>36.909999999999997</v>
@@ -3004,8 +3128,11 @@
       <c r="AB25">
         <v>36.909999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25">
+        <v>36.909999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3039,38 +3166,39 @@
       <c r="K26" s="4">
         <v>180</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="11">
+        <f t="shared" si="0"/>
+        <v>7.1679999999999999E-3</v>
+      </c>
+      <c r="M26" s="4">
         <v>112</v>
       </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>49.5</v>
       </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
       <c r="R26" s="4">
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>6.6</v>
       </c>
-      <c r="T26" s="4">
-        <v>0</v>
-      </c>
       <c r="U26" s="4">
         <v>0</v>
       </c>
       <c r="V26" s="4">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="W26" s="4">
         <v>112</v>
@@ -3090,8 +3218,11 @@
       <c r="AB26" s="4">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3125,38 +3256,39 @@
       <c r="K27" s="4">
         <v>153</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="11">
+        <f t="shared" si="0"/>
+        <v>6.3262372881355946E-3</v>
+      </c>
+      <c r="M27" s="4">
         <v>99.8</v>
       </c>
-      <c r="M27" s="4">
-        <v>0</v>
-      </c>
       <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
         <v>40</v>
       </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27">
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>49.5</v>
       </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
       <c r="R27" s="4">
         <v>0</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>6.6</v>
       </c>
-      <c r="T27" s="4">
-        <v>0</v>
-      </c>
       <c r="U27" s="4">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>99.8</v>
+      <c r="V27" s="4">
+        <v>0</v>
       </c>
       <c r="W27">
         <v>99.8</v>
@@ -3176,8 +3308,11 @@
       <c r="AB27">
         <v>99.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3211,38 +3346,39 @@
       <c r="K28" s="4">
         <v>445</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="11">
+        <f t="shared" si="0"/>
+        <v>2.2049999999999999E-3</v>
+      </c>
+      <c r="M28" s="4">
         <v>40</v>
       </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>49.5</v>
       </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
       <c r="R28" s="4">
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>6.6</v>
       </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
       <c r="U28" s="4">
         <v>0</v>
       </c>
       <c r="V28" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="W28" s="4">
         <v>40</v>
@@ -3262,8 +3398,11 @@
       <c r="AB28" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3297,38 +3436,39 @@
       <c r="K29" s="4">
         <v>445</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="11">
+        <f t="shared" si="0"/>
+        <v>3.3516000000000002E-3</v>
+      </c>
+      <c r="M29" s="4">
         <v>60</v>
       </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>49.5</v>
       </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
       <c r="R29" s="4">
         <v>0</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>6.6</v>
       </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
       <c r="U29" s="4">
         <v>0</v>
       </c>
       <c r="V29" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W29" s="4">
         <v>60</v>
@@ -3348,8 +3488,11 @@
       <c r="AB29" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3383,38 +3526,39 @@
       <c r="K30" s="4">
         <v>382</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="11">
+        <f t="shared" si="0"/>
+        <v>9.8960400000000018E-3</v>
+      </c>
+      <c r="M30" s="4">
         <v>237</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>46.938079222258203</v>
       </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
       <c r="O30" s="4">
         <v>0</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>49.5</v>
       </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
       <c r="R30" s="4">
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>6.6</v>
       </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
       <c r="U30" s="4">
         <v>0</v>
       </c>
       <c r="V30" s="4">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="W30" s="4">
         <v>158</v>
@@ -3434,8 +3578,11 @@
       <c r="AB30" s="4">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3469,38 +3616,39 @@
       <c r="K31" s="4">
         <v>344</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7588959999999998E-3</v>
+      </c>
+      <c r="M31" s="4">
         <v>232.5</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>50.0655518183911</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>16</v>
       </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>49.5</v>
       </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
       <c r="R31" s="4">
         <v>0</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>6.6</v>
       </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
       <c r="U31" s="4">
         <v>0</v>
       </c>
       <c r="V31" s="4">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="W31" s="4">
         <v>155</v>
@@ -3520,8 +3668,11 @@
       <c r="AB31" s="4">
         <v>155</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3555,38 +3706,39 @@
       <c r="K32" s="4">
         <v>236</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="11">
+        <f t="shared" si="0"/>
+        <v>3.0710534400000011E-3</v>
+      </c>
+      <c r="M32" s="4">
         <v>77</v>
       </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>5.1621696000000012</v>
       </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32">
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>49.5</v>
       </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
       <c r="R32" s="4">
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <v>6.6</v>
       </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
       <c r="U32" s="4">
         <v>0</v>
       </c>
       <c r="V32" s="4">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="W32" s="4">
         <v>77</v>
@@ -3606,8 +3758,11 @@
       <c r="AB32" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC32" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3641,38 +3796,39 @@
       <c r="K33" s="4">
         <v>124</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
         <v>49</v>
       </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>49.5</v>
       </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
       <c r="R33" s="4">
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <v>6.6</v>
       </c>
-      <c r="T33" s="4">
-        <v>0</v>
-      </c>
       <c r="U33" s="4">
         <v>0</v>
       </c>
       <c r="V33" s="4">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="W33" s="4">
         <v>49</v>
@@ -3692,8 +3848,11 @@
       <c r="AB33" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC33" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3727,38 +3886,39 @@
       <c r="K34" s="4">
         <v>550</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5833664000000005E-3</v>
+      </c>
+      <c r="M34" s="4">
         <v>55</v>
       </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>49.5</v>
       </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
       <c r="R34" s="4">
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>6.6</v>
       </c>
-      <c r="T34" s="4">
-        <v>0</v>
-      </c>
       <c r="U34" s="4">
         <v>0</v>
       </c>
       <c r="V34" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W34" s="4">
         <v>55</v>
@@ -3778,8 +3938,11 @@
       <c r="AB34" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC34" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3813,38 +3976,39 @@
       <c r="K35" s="4">
         <v>654</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
         <v>94</v>
       </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
       <c r="N35" s="4">
         <v>0</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>49.5</v>
       </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
       <c r="R35" s="4">
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>6.6</v>
       </c>
-      <c r="T35" s="4">
-        <v>0</v>
-      </c>
       <c r="U35" s="4">
         <v>0</v>
       </c>
       <c r="V35" s="4">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="W35" s="4">
         <v>94</v>
@@ -3864,8 +4028,11 @@
       <c r="AB35" s="4">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC35" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3899,38 +4066,39 @@
       <c r="K36" s="4">
         <v>227</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
         <v>39</v>
       </c>
-      <c r="M36" s="4">
-        <v>0</v>
-      </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>49.5</v>
       </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
       <c r="R36" s="4">
         <v>0</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>6.6</v>
       </c>
-      <c r="T36" s="4">
-        <v>0</v>
-      </c>
       <c r="U36" s="4">
         <v>0</v>
       </c>
       <c r="V36" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="W36" s="4">
         <v>39</v>
@@ -3950,8 +4118,11 @@
       <c r="AB36" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3985,38 +4156,39 @@
       <c r="K37" s="4">
         <v>135</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
         <v>25</v>
       </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37">
         <v>2.5</v>
       </c>
-      <c r="O37" s="4">
-        <v>0</v>
-      </c>
-      <c r="P37">
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>49.5</v>
       </c>
-      <c r="Q37" s="4">
-        <v>0</v>
-      </c>
       <c r="R37" s="4">
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <v>6.6</v>
       </c>
-      <c r="T37" s="4">
-        <v>0</v>
-      </c>
       <c r="U37" s="4">
         <v>0</v>
       </c>
       <c r="V37" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W37" s="4">
         <v>25</v>
@@ -4036,8 +4208,11 @@
       <c r="AB37" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC37" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4071,38 +4246,39 @@
       <c r="K38" s="4">
         <v>720</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
         <v>267</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>35.668848618883302</v>
       </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
       <c r="O38" s="4">
         <v>0</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>49.5</v>
       </c>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
       <c r="R38" s="4">
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>6.6</v>
       </c>
-      <c r="T38" s="4">
-        <v>0</v>
-      </c>
       <c r="U38" s="4">
         <v>0</v>
       </c>
       <c r="V38" s="4">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="W38" s="4">
         <v>178</v>
@@ -4122,8 +4298,11 @@
       <c r="AB38" s="4">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4157,38 +4336,39 @@
       <c r="K39" s="4">
         <v>180</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8199999999999997E-4</v>
+      </c>
+      <c r="M39" s="4">
         <v>30</v>
       </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
       <c r="N39" s="4">
+        <v>0</v>
+      </c>
+      <c r="O39" s="4">
         <v>3</v>
       </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-      <c r="P39">
+      <c r="P39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>49.5</v>
       </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
       <c r="R39" s="4">
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="4">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>6.6</v>
       </c>
-      <c r="T39" s="4">
-        <v>0</v>
-      </c>
       <c r="U39" s="4">
         <v>0</v>
       </c>
       <c r="V39" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W39" s="4">
         <v>30</v>
@@ -4208,8 +4388,11 @@
       <c r="AB39" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC39" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4243,38 +4426,39 @@
       <c r="K40" s="4">
         <v>48</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8102400000000002E-2</v>
+      </c>
+      <c r="M40" s="4">
         <v>51</v>
       </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40">
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>49.5</v>
       </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
       <c r="R40" s="4">
         <v>0</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <v>6.6</v>
       </c>
-      <c r="T40" s="4">
-        <v>0</v>
-      </c>
       <c r="U40" s="4">
         <v>0</v>
       </c>
       <c r="V40" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="W40" s="4">
         <v>51</v>
@@ -4294,8 +4478,11 @@
       <c r="AB40" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC40" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4329,38 +4516,39 @@
       <c r="K41" s="4">
         <v>32</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8708199999999999</v>
+      </c>
+      <c r="M41" s="4">
         <v>39</v>
       </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
       <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
         <v>20</v>
       </c>
-      <c r="O41" s="4">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>49.5</v>
       </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
       <c r="R41" s="4">
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <v>6.6</v>
       </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
       <c r="U41" s="4">
         <v>0</v>
       </c>
       <c r="V41" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="W41" s="4">
         <v>39</v>
@@ -4380,8 +4568,11 @@
       <c r="AB41" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC41" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4415,38 +4606,39 @@
       <c r="K42" s="6">
         <v>34.5</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4126700000000002E-2</v>
+      </c>
+      <c r="M42" s="4">
         <v>55</v>
       </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
       <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
         <v>15</v>
       </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42">
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>49.5</v>
       </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
       <c r="R42" s="4">
         <v>0</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="4">
+        <v>0</v>
+      </c>
+      <c r="T42">
         <v>6.6</v>
       </c>
-      <c r="T42" s="4">
-        <v>0</v>
-      </c>
       <c r="U42" s="4">
         <v>0</v>
       </c>
       <c r="V42" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="W42" s="4">
         <v>55</v>
@@ -4466,8 +4658,11 @@
       <c r="AB42" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC42" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="H44" s="8" t="s">
         <v>125</v>
       </c>
@@ -4480,29 +4675,29 @@
       <c r="K44" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="L44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="O44" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="O44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="P44" s="8" t="s">
+      <c r="Q44" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="V44" s="4" t="s">
-        <v>129</v>
+      <c r="T44" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>129</v>
@@ -4522,238 +4717,242 @@
       <c r="AB44" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC44" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>118</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>120</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>121</v>
       </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>122</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>123</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N57" s="2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O57" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N58" s="2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O58" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N59" s="2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O59" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N60" s="2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O60" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N61" s="2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O61" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N62" s="2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O62" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N63" s="2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O63" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N65" s="2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N66" s="2">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O66" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N67" s="2">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O67" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N69" s="2">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O69" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N70" s="2">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O70" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N71" s="2">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O71" s="2">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N73" s="2">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O73" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N78" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N79" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N80" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N81" s="2" t="s">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O78" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O79" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O81" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N89" s="2">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O89" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="14:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N90" s="3">
+    <row r="90" spans="15:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O90" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="14:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="15:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>